--- a/25-26/Invoices 25-26/25 BK025 September 25-26 HOANG MINH STONE TRADING COMPANY LIMITED (Nam stone) Absolute Mix (RJSL)/Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/25-26/Invoices 25-26/25 BK025 September 25-26 HOANG MINH STONE TRADING COMPANY LIMITED (Nam stone) Absolute Mix (RJSL)/Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B K EXPORTS\BK Exports bills\25-26\Invoices 25-26\25 BK025 September 25-26 HOANG MINH STONE TRADING COMPANY LIMITED (Nam stone) Absolute Mix (RJSL)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01BF3A1-F73B-45C7-91A7-BC783E9E7A44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C042DE4-5956-42F2-9A20-7B1476D709DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,14 +594,6 @@
     <t>GST 0.1%</t>
   </si>
   <si>
-    <t>HOANG MINH STONE TRADING COMPANY LIMITED
-Lot 175 MBQH 6804 Hac Thanh Ward, Thanh Hoa Province
-DISTRICT 1, HOCHIMINH CITY, VIETNAM
- Tax ID: 2803146553
- TEL:  0392794691
- hoangminh6868vn@gmail.com</t>
-  </si>
-  <si>
     <t>actual</t>
   </si>
   <si>
@@ -641,6 +633,13 @@
   </si>
   <si>
     <t xml:space="preserve">actual </t>
+  </si>
+  <si>
+    <t>HOANG MINH STONE TRADING COMPANY LIMITED
+Lot 175 MBQH 6804 Hac Thanh Ward, Thanh Hoa Province
+ Tax ID: 2803146553
+ TEL:  0392794691
+ hoangminh6868vn@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1609,6 +1608,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1616,56 +1619,87 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1679,9 +1713,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1691,100 +1722,66 @@
     <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1808,21 +1805,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1844,9 +1909,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1860,69 +1922,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3408,8 +3407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3457,7 +3456,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -3615,11 +3614,11 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="85" t="s">
-        <v>154</v>
+      <c r="B7" s="89" t="s">
+        <v>167</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -3647,8 +3646,8 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -3675,8 +3674,8 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -3703,8 +3702,8 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -3731,8 +3730,8 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -3759,8 +3758,8 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="84"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -4047,7 +4046,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -4079,7 +4078,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -4143,7 +4142,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -31617,7 +31616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
@@ -31641,30 +31640,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -31673,16 +31672,16 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="109" t="s">
+      <c r="E3" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="109" t="s">
+      <c r="F3" s="95"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="97"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="91"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -31691,18 +31690,18 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="122" t="str">
+      <c r="E4" s="119" t="str">
         <f>'input data'!B3</f>
         <v>BK025/25-26</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="123">
+      <c r="F4" s="101"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="120">
         <f>'input data'!B4</f>
         <v>45925</v>
       </c>
-      <c r="I4" s="124"/>
-      <c r="J4" s="125"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="122"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -31711,16 +31710,16 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="109" t="s">
+      <c r="F5" s="95"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="96"/>
-      <c r="J5" s="97"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -31729,15 +31728,15 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="126" t="str">
+      <c r="E6" s="115"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="116" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="90"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
@@ -31746,16 +31745,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="109" t="s">
+      <c r="F7" s="95"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="97"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="91"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -31764,16 +31763,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91" t="s">
+      <c r="F8" s="101"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="92"/>
-      <c r="J8" s="90"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="99"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -31782,16 +31781,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="109" t="s">
+      <c r="F9" s="95"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="96"/>
-      <c r="J9" s="97"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="91"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -31800,69 +31799,69 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="115" t="str">
+      <c r="E10" s="114" t="str">
         <f>'input data'!B14</f>
         <v>Loose packing</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="115" t="str">
+      <c r="F10" s="88"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="114" t="str">
         <f>'input data'!B13 &amp; " " &amp; 'input data'!B15</f>
         <v>1 FCL</v>
       </c>
-      <c r="I10" s="84"/>
-      <c r="J10" s="99"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="93"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="132" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="127" t="s">
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="105"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="130" t="str">
+      <c r="A12" s="109" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="131" t="str">
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="110" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="128" t="str">
+      <c r="F12" s="88"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="106" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
-      <c r="I12" s="84"/>
-      <c r="J12" s="99"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="93"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="90"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="99"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -31871,285 +31870,284 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="129" t="s">
+      <c r="E14" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="97"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="91"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="133" t="str">
+      <c r="A15" s="113" t="str">
         <f>'input data'!B7</f>
         <v>HOANG MINH STONE TRADING COMPANY LIMITED
 Lot 175 MBQH 6804 Hac Thanh Ward, Thanh Hoa Province
-DISTRICT 1, HOCHIMINH CITY, VIETNAM
  Tax ID: 2803146553
  TEL:  0392794691
  hoangminh6868vn@gmail.com</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="99"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="93"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="99"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="93"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="99"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="93"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="99"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="93"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="99"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="93"/>
     </row>
     <row r="20" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="90"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="99"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="134" t="s">
+      <c r="B21" s="91"/>
+      <c r="C21" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="134" t="s">
+      <c r="D21" s="91"/>
+      <c r="E21" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="96"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="134" t="s">
+      <c r="F21" s="95"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="96"/>
-      <c r="J21" s="97"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="135" t="s">
+      <c r="A22" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="137" t="str">
+      <c r="B22" s="93"/>
+      <c r="C22" s="97" t="str">
         <f>'input data'!B19</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="138" t="s">
+      <c r="D22" s="93"/>
+      <c r="E22" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="84"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="138" t="str">
+      <c r="F22" s="88"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="100" t="str">
         <f>'input data'!B23</f>
         <v>VIETNAM</v>
       </c>
-      <c r="I22" s="84"/>
-      <c r="J22" s="99"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="93"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="139"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="90"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="99"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="109" t="s">
+      <c r="A24" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="136" t="s">
+      <c r="B24" s="91"/>
+      <c r="C24" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="97"/>
-      <c r="E24" s="109" t="s">
+      <c r="D24" s="91"/>
+      <c r="E24" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="96"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="136" t="s">
+      <c r="F24" s="95"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="96"/>
-      <c r="J24" s="97"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="91"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="91" t="str">
+      <c r="A25" s="115"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="117" t="str">
         <f>'input data'!B20</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D25" s="90"/>
-      <c r="E25" s="91" t="str">
+      <c r="D25" s="99"/>
+      <c r="E25" s="117" t="str">
         <f>'input data'!B21</f>
         <v>HAI PHONG</v>
       </c>
-      <c r="F25" s="92"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="91" t="str">
+      <c r="F25" s="101"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="117" t="str">
         <f>'input data'!B22</f>
         <v>HAI PHONG</v>
       </c>
-      <c r="I25" s="92"/>
-      <c r="J25" s="90"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="99"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="96"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="93" t="s">
+      <c r="C26" s="95"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="109" t="s">
+      <c r="F26" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="97"/>
+      <c r="G26" s="91"/>
       <c r="H26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="109" t="s">
+      <c r="I26" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="97"/>
+      <c r="J26" s="91"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="94"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="91" t="s">
+      <c r="A27" s="139"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="90"/>
+      <c r="G27" s="99"/>
       <c r="H27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="91" t="s">
+      <c r="I27" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="90"/>
-      <c r="N27" s="195"/>
-      <c r="O27" s="195"/>
-      <c r="P27" s="195"/>
+      <c r="J27" s="99"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>1</v>
       </c>
-      <c r="B28" s="100" t="str">
+      <c r="B28" s="124" t="str">
         <f>'input data'!B18</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="105"/>
       <c r="E28" s="28">
         <v>68022390</v>
       </c>
-      <c r="F28" s="110">
+      <c r="F28" s="125">
         <f>'input data'!B26</f>
         <v>252.31</v>
       </c>
-      <c r="G28" s="102"/>
+      <c r="G28" s="105"/>
       <c r="H28" s="71">
         <v>22.01</v>
       </c>
-      <c r="I28" s="106">
+      <c r="I28" s="134">
         <v>5553.13</v>
       </c>
-      <c r="J28" s="102"/>
-      <c r="M28" s="195"/>
+      <c r="J28" s="105"/>
+      <c r="M28" s="83"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26">
         <v>2</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="29">
         <v>68022390</v>
       </c>
-      <c r="F29" s="111">
+      <c r="F29" s="126">
         <v>201.9</v>
       </c>
-      <c r="G29" s="112"/>
+      <c r="G29" s="127"/>
       <c r="H29" s="71">
         <v>16.760000000000002</v>
       </c>
-      <c r="I29" s="106">
+      <c r="I29" s="134">
         <v>3384.2</v>
       </c>
-      <c r="J29" s="102"/>
+      <c r="J29" s="105"/>
       <c r="M29" s="81"/>
       <c r="O29" s="80"/>
       <c r="P29" s="81"/>
@@ -32170,19 +32168,19 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="69"/>
-      <c r="H30" s="103" t="s">
+      <c r="H30" s="141" t="s">
         <v>152</v>
       </c>
       <c r="I30" s="69"/>
       <c r="J30" s="20"/>
-      <c r="O30" s="195"/>
+      <c r="O30" s="83"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="115" t="str">
+      <c r="A31" s="114" t="str">
         <f>UPPER('input data'!B24)</f>
         <v>CSNU2508330</v>
       </c>
-      <c r="B31" s="84"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="3">
         <f>'input data'!B25</f>
         <v>344</v>
@@ -32195,11 +32193,11 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="69"/>
-      <c r="H31" s="104"/>
+      <c r="H31" s="142"/>
       <c r="I31" s="69"/>
       <c r="J31" s="20"/>
-      <c r="O31" s="195"/>
-      <c r="Q31" s="195"/>
+      <c r="O31" s="83"/>
+      <c r="Q31" s="83"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
@@ -32207,12 +32205,12 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="104"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="142"/>
       <c r="I32" s="69"/>
       <c r="J32" s="20"/>
-      <c r="Q32" s="195"/>
+      <c r="Q32" s="83"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
@@ -32222,11 +32220,11 @@
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
       <c r="G33" s="70"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="120">
+      <c r="H33" s="143"/>
+      <c r="I33" s="133">
         <v>0</v>
       </c>
-      <c r="J33" s="102"/>
+      <c r="J33" s="105"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
@@ -32239,49 +32237,49 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="72"/>
-      <c r="I34" s="118">
+      <c r="I34" s="132">
         <f>SUM(I28:J33)</f>
         <v>8937.33</v>
       </c>
-      <c r="J34" s="97"/>
+      <c r="J34" s="91"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="86" t="s">
-        <v>165</v>
+      <c r="A35" s="135" t="s">
+        <v>164</v>
       </c>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="90"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="99"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="116" t="s">
+      <c r="A36" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="119" t="s">
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="97"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="91"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="99"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="93"/>
       <c r="E37" s="19" t="s">
         <v>82</v>
       </c>
@@ -32292,10 +32290,10 @@
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="98"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="99"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="93"/>
       <c r="E38" s="19"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -32304,12 +32302,12 @@
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="107" t="s">
+      <c r="A39" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="99"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="93"/>
       <c r="E39" s="19"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -32318,10 +32316,10 @@
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="90"/>
+      <c r="A40" s="98"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="99"/>
       <c r="E40" s="31" t="s">
         <v>84</v>
       </c>
@@ -33291,44 +33289,17 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="E14:J20"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:G13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A15:D20"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I29:J29"/>
     <mergeCell ref="A39:D40"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="F26:G26"/>
@@ -33345,17 +33316,44 @@
     <mergeCell ref="E36:J36"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="E14:J20"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A15:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
   </mergeCells>
   <conditionalFormatting sqref="A35">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
@@ -33388,7 +33386,7 @@
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="75">
         <v>252.31</v>
@@ -33403,58 +33401,58 @@
       <c r="E3" s="76"/>
     </row>
     <row r="4" spans="1:5" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="198" t="s">
-        <v>155</v>
+      <c r="A4" s="86" t="s">
+        <v>154</v>
       </c>
-      <c r="B4" s="196">
+      <c r="B4" s="84">
         <v>201.9</v>
       </c>
-      <c r="C4" s="196">
+      <c r="C4" s="84">
         <v>18</v>
       </c>
       <c r="D4" s="75">
         <f>B4*C4</f>
         <v>3634.2000000000003</v>
       </c>
-      <c r="E4" s="197"/>
+      <c r="E4" s="85"/>
     </row>
     <row r="5" spans="1:5" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199" t="s">
-        <v>167</v>
+      <c r="A5" s="144" t="s">
+        <v>166</v>
       </c>
-      <c r="B5" s="200"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="196">
+      <c r="B5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="84">
         <f>D3+D4</f>
         <v>9437.33</v>
       </c>
-      <c r="E5" s="197"/>
+      <c r="E5" s="85"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="199" t="s">
-        <v>166</v>
+      <c r="A6" s="144" t="s">
+        <v>165</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="203"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="148"/>
       <c r="D6" s="73">
         <v>8937.33</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="206" t="s">
-        <v>163</v>
+      <c r="A7" s="149" t="s">
+        <v>162</v>
       </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="205"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="151"/>
       <c r="D7" s="78">
         <f>D5-D6</f>
         <v>500</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -33484,56 +33482,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="140" t="s">
+      <c r="H2" s="91"/>
+      <c r="I2" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="97"/>
+      <c r="J2" s="91"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="122" t="str">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="119" t="str">
         <f>Invoice!E4</f>
         <v>BK025/25-26</v>
       </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="123">
+      <c r="H3" s="99"/>
+      <c r="I3" s="120">
         <f>Invoice!H4</f>
         <v>45925</v>
       </c>
-      <c r="J3" s="125"/>
+      <c r="J3" s="122"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -33544,12 +33542,12 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="97"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -33560,22 +33558,22 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="91" t="str">
+      <c r="G5" s="117" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="90"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="99"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="20"/>
       <c r="G6" s="24"/>
       <c r="H6" s="32"/>
@@ -33645,13 +33643,13 @@
       <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="143" t="s">
+      <c r="A11" s="174" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="18"/>
       <c r="G11" s="35" t="s">
         <v>96</v>
@@ -33661,14 +33659,14 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="144" t="str">
+      <c r="A12" s="175" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
       <c r="H12" s="4"/>
@@ -33676,11 +33674,11 @@
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="30"/>
       <c r="G13" s="19"/>
       <c r="H13" s="4"/>
@@ -33688,213 +33686,212 @@
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="19"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="133" t="str">
+      <c r="A15" s="113" t="str">
         <f>Invoice!A15</f>
         <v>HOANG MINH STONE TRADING COMPANY LIMITED
 Lot 175 MBQH 6804 Hac Thanh Ward, Thanh Hoa Province
-DISTRICT 1, HOCHIMINH CITY, VIETNAM
  Tax ID: 2803146553
  TEL:  0392794691
  hoangminh6868vn@gmail.com</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="99"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="19"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="99"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="93"/>
       <c r="G16" s="19"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="99"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="19"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="141" t="s">
+      <c r="A18" s="108"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="97"/>
-      <c r="I18" s="150" t="s">
+      <c r="H18" s="91"/>
+      <c r="I18" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="97"/>
+      <c r="J18" s="91"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="90"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="99"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="151" t="s">
+      <c r="A20" s="98"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="90"/>
-      <c r="I20" s="151" t="str">
+      <c r="H20" s="99"/>
+      <c r="I20" s="169" t="str">
         <f>Invoice!H22</f>
         <v>VIETNAM</v>
       </c>
-      <c r="J20" s="90"/>
+      <c r="J20" s="99"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="145" t="s">
+      <c r="A21" s="165" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="145" t="s">
+      <c r="B21" s="95"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="146" t="s">
+      <c r="E21" s="95"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="176" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="102"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="105"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91" t="str">
+      <c r="A22" s="115"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="117" t="str">
         <f>Invoice!C22</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="149" t="str">
+      <c r="E22" s="101"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="166" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="90"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="99"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="145" t="s">
+      <c r="A23" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="145" t="s">
+      <c r="B23" s="95"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="96"/>
-      <c r="F23" s="97"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="91"/>
       <c r="G23" s="42"/>
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
       <c r="J23" s="44"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91" t="str">
+      <c r="A24" s="115"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="117" t="str">
         <f>Invoice!C25</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E24" s="92"/>
-      <c r="F24" s="90"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="99"/>
       <c r="G24" s="31"/>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="30"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="145" t="s">
+      <c r="A25" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="145" t="s">
+      <c r="B25" s="95"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="96"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="152" t="s">
+      <c r="E25" s="95"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="102"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="105"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="139" t="str">
+      <c r="A26" s="102" t="str">
         <f>Invoice!E25</f>
         <v>HAI PHONG</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="139" t="str">
+      <c r="B26" s="88"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="102" t="str">
         <f>Invoice!H25</f>
         <v>HAI PHONG</v>
       </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="141" t="str">
+      <c r="E26" s="88"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="167" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="97"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="91"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
@@ -33912,67 +33909,67 @@
       <c r="A28" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91" t="s">
+      <c r="C28" s="99"/>
+      <c r="D28" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
       <c r="G28" s="48"/>
       <c r="H28" s="49"/>
-      <c r="I28" s="91" t="s">
+      <c r="I28" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="90"/>
+      <c r="J28" s="99"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>1</v>
       </c>
-      <c r="B29" s="100">
+      <c r="B29" s="124">
         <f>Invoice!E28</f>
         <v>68022390</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="162" t="str">
+      <c r="C29" s="105"/>
+      <c r="D29" s="152" t="str">
         <f>Invoice!B28</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="163">
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="153">
         <f>Invoice!F28</f>
         <v>252.31</v>
       </c>
-      <c r="J29" s="102"/>
+      <c r="J29" s="105"/>
     </row>
     <row r="30" spans="1:10" s="81" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27">
         <v>2</v>
       </c>
-      <c r="B30" s="100">
+      <c r="B30" s="124">
         <f>Invoice!E29</f>
         <v>68022390</v>
       </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="162" t="str">
+      <c r="C30" s="105"/>
+      <c r="D30" s="152" t="str">
         <f>Invoice!B29</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="163">
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="153">
         <f>Invoice!F29</f>
         <v>201.9</v>
       </c>
-      <c r="J30" s="102"/>
+      <c r="J30" s="105"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="50" t="s">
@@ -33989,7 +33986,7 @@
         <f>I29+I30</f>
         <v>454.21000000000004</v>
       </c>
-      <c r="J31" s="102"/>
+      <c r="J31" s="105"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
@@ -34004,17 +34001,17 @@
       <c r="J32" s="34"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="139" t="s">
+      <c r="A33" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="84"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="113" t="s">
+      <c r="D33" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="84"/>
+      <c r="E33" s="88"/>
       <c r="F33" s="32" t="s">
         <v>75</v>
       </c>
@@ -34024,19 +34021,19 @@
       <c r="J33" s="34"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="115" t="str">
+      <c r="A34" s="114" t="str">
         <f>Invoice!A31</f>
         <v>CSNU2508330</v>
       </c>
-      <c r="B34" s="84"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="51">
         <f>'input data'!B25</f>
         <v>344</v>
       </c>
-      <c r="D34" s="160" t="s">
+      <c r="D34" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="84"/>
+      <c r="E34" s="88"/>
       <c r="F34" s="51" t="s">
         <v>109</v>
       </c>
@@ -34101,64 +34098,64 @@
       <c r="J38" s="56"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="119" t="s">
+      <c r="A39" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="119" t="s">
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="97"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="91"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="161" t="s">
+      <c r="A40" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="99"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="93"/>
       <c r="G40" s="19"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="153" t="s">
+      <c r="A41" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="154"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="155"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="157"/>
       <c r="G41" s="19"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="156" t="s">
+      <c r="A42" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="157"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="159" t="s">
+      <c r="B42" s="159"/>
+      <c r="C42" s="159"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="161" t="s">
         <v>116</v>
       </c>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="90"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="99"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35119,44 +35116,6 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:J26"/>
@@ -35173,6 +35132,44 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I29:J29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -35203,84 +35200,84 @@
   <sheetData>
     <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="57"/>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="169"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="197"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
     </row>
     <row r="2" spans="1:25" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="57"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="172"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="200"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="202" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="203" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="99"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="93"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="90"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="99"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -35297,18 +35294,18 @@
     </row>
     <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="99"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="93"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -35328,10 +35325,10 @@
       <c r="B9" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="179">
+      <c r="C9" s="206">
         <v>45925</v>
       </c>
-      <c r="D9" s="179"/>
+      <c r="D9" s="206"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -35346,7 +35343,7 @@
         <v>122</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -35387,14 +35384,14 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="142" t="s">
-        <v>161</v>
+      <c r="B13" s="173" t="s">
+        <v>160</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -35402,14 +35399,14 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
-      <c r="B14" s="133" t="s">
-        <v>162</v>
+      <c r="B14" s="113" t="s">
+        <v>161</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -35417,12 +35414,12 @@
     </row>
     <row r="15" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -35459,109 +35456,109 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="52"/>
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="132" t="s">
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="102"/>
-      <c r="H18" s="132" t="s">
+      <c r="G18" s="105"/>
+      <c r="H18" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="102"/>
-      <c r="J18" s="132" t="s">
+      <c r="I18" s="105"/>
+      <c r="J18" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="102"/>
+      <c r="K18" s="105"/>
       <c r="N18" s="82"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="132">
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="112">
         <v>151.58000000000001</v>
       </c>
-      <c r="G19" s="102"/>
-      <c r="H19" s="165">
+      <c r="G19" s="105"/>
+      <c r="H19" s="184">
         <v>2714.86</v>
       </c>
-      <c r="I19" s="102"/>
-      <c r="J19" s="166">
+      <c r="I19" s="105"/>
+      <c r="J19" s="189">
         <f>F19*H19</f>
         <v>411518.47880000004</v>
       </c>
-      <c r="K19" s="102"/>
+      <c r="K19" s="105"/>
       <c r="N19" s="82"/>
       <c r="Q19" s="80"/>
     </row>
     <row r="20" spans="1:18" s="80" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
-      <c r="B20" s="162" t="s">
+      <c r="B20" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="132">
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="112">
         <v>107.7</v>
       </c>
-      <c r="G20" s="102"/>
-      <c r="H20" s="165">
+      <c r="G20" s="105"/>
+      <c r="H20" s="184">
         <v>2172.44</v>
       </c>
-      <c r="I20" s="102"/>
-      <c r="J20" s="166">
+      <c r="I20" s="105"/>
+      <c r="J20" s="189">
         <f>F20*H20</f>
         <v>233971.788</v>
       </c>
-      <c r="K20" s="102"/>
+      <c r="K20" s="105"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="51"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="190" t="s">
+      <c r="B21" s="114"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="177" t="s">
         <v>153</v>
       </c>
-      <c r="I21" s="191"/>
-      <c r="J21" s="188">
+      <c r="I21" s="178"/>
+      <c r="J21" s="193">
         <f>(J19+J20)*0.001</f>
         <v>645.49026680000009</v>
       </c>
-      <c r="K21" s="189"/>
+      <c r="K21" s="194"/>
       <c r="M21" s="82"/>
       <c r="N21" s="82"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
       <c r="F22" s="33"/>
       <c r="G22" s="62"/>
-      <c r="H22" s="193" t="s">
+      <c r="H22" s="180" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="194"/>
-      <c r="J22" s="180">
+      <c r="I22" s="181"/>
+      <c r="J22" s="182">
         <f>SUM(J19:K21)</f>
         <v>646135.75706680014</v>
       </c>
-      <c r="K22" s="181"/>
+      <c r="K22" s="183"/>
       <c r="M22" s="82"/>
       <c r="O22" s="80"/>
       <c r="Q22" s="80"/>
@@ -35569,34 +35566,34 @@
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="99"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="93"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="183" t="s">
+      <c r="B24" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="101"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
-      <c r="J24" s="184">
+      <c r="J24" s="188">
         <f>J22</f>
         <v>646135.75706680014</v>
       </c>
-      <c r="K24" s="102"/>
+      <c r="K24" s="105"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -35613,10 +35610,10 @@
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="63"/>
-      <c r="B26" s="192" t="s">
+      <c r="B26" s="179" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="84"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -35769,14 +35766,14 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="64"/>
-      <c r="B36" s="148" t="s">
+      <c r="B36" s="172" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -35784,14 +35781,14 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="64"/>
-      <c r="B37" s="148" t="s">
+      <c r="B37" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -36827,11 +36824,22 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G15"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -36848,22 +36856,11 @@
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B1:K2"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G15"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="78" orientation="portrait" r:id="rId1"/>
